--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_4_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_4_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6327.558164931213</v>
+        <v>379653.4898958727</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6327.558164931213</v>
+        <v>379653.4898958727</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958657909.6366895</v>
+        <v>38844573.98371034</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8760.979072866359</v>
+        <v>855061.6775850817</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17129.28772371928</v>
+        <v>1642172.327792953</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25497.59637457218</v>
+        <v>2429282.978000825</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34254.16767346305</v>
+        <v>3191276.896141991</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42714.9091066093</v>
+        <v>3978387.546349863</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51175.65053975554</v>
+        <v>4765498.196557734</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59636.39197290179</v>
+        <v>5552608.846765603</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68097.13340604804</v>
+        <v>6339719.496973472</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76799.44133001115</v>
+        <v>7104564.913475816</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>85262.14191178749</v>
+        <v>7891434.844806367</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>93722.88334493373</v>
+        <v>8678545.495014241</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>102183.6247780799</v>
+        <v>9465656.145222118</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>110644.3662112262</v>
+        <v>10252766.79543</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>119105.1076443724</v>
+        <v>11039877.44563787</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>128346.1826915408</v>
+        <v>11779697.40802133</v>
       </c>
     </row>
   </sheetData>
